--- a/main/bin/Debug/ArquivosDados/CadastroLocal.xlsx
+++ b/main/bin/Debug/ArquivosDados/CadastroLocal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC9093BD-A464-475F-A271-EF0D0CE45009}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29C3F122-286C-4413-823F-0AE718FE9412}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t xml:space="preserve">Nome </t>
   </si>
@@ -31,31 +31,43 @@
     <t>Tipo</t>
   </si>
   <si>
+    <t>Cep</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Estabelecimento de Teste</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>081999999999</t>
+  </si>
+  <si>
+    <t>SUCESSO</t>
+  </si>
+  <si>
+    <t>malFormado</t>
+  </si>
+  <si>
+    <t>08199999999</t>
+  </si>
+  <si>
+    <t>08199999</t>
+  </si>
+  <si>
+    <t>bemFormado</t>
+  </si>
+  <si>
+    <t>semEspecialidade</t>
+  </si>
+  <si>
     <t>FALHA</t>
-  </si>
-  <si>
-    <t>Cep</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>Estabelecimento de Teste</t>
-  </si>
-  <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>081999999999</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -106,7 +118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,13 +149,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,27 +462,27 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>50670160</v>
@@ -479,18 +491,18 @@
         <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>50670160</v>
@@ -498,22 +510,88 @@
       <c r="E3" s="1">
         <v>222</v>
       </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50670160</v>
+      </c>
+      <c r="E4" s="1">
+        <v>222</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>222</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50670160</v>
+      </c>
+      <c r="E6" s="1">
+        <v>222</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50670160</v>
+      </c>
+      <c r="E7" s="1">
+        <v>222</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/main/bin/Debug/ArquivosDados/CadastroLocal.xlsx
+++ b/main/bin/Debug/ArquivosDados/CadastroLocal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29C3F122-286C-4413-823F-0AE718FE9412}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F239B92-A6F3-4087-8091-8E481EA513B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t xml:space="preserve">Nome </t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>semEspecialidade</t>
-  </si>
-  <si>
-    <t>FALHA</t>
   </si>
 </sst>
 </file>
@@ -491,7 +488,7 @@
         <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/main/bin/Debug/ArquivosDados/CadastroLocal.xlsx
+++ b/main/bin/Debug/ArquivosDados/CadastroLocal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F239B92-A6F3-4087-8091-8E481EA513B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC9093BD-A464-475F-A271-EF0D0CE45009}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t xml:space="preserve">Nome </t>
   </si>
@@ -31,6 +31,9 @@
     <t>Tipo</t>
   </si>
   <si>
+    <t>FALHA</t>
+  </si>
+  <si>
     <t>Cep</t>
   </si>
   <si>
@@ -49,22 +52,10 @@
     <t>081999999999</t>
   </si>
   <si>
-    <t>SUCESSO</t>
-  </si>
-  <si>
-    <t>malFormado</t>
-  </si>
-  <si>
-    <t>08199999999</t>
-  </si>
-  <si>
-    <t>08199999</t>
-  </si>
-  <si>
-    <t>bemFormado</t>
-  </si>
-  <si>
-    <t>semEspecialidade</t>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -115,7 +106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,13 +137,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -435,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,27 +450,27 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>50670160</v>
@@ -488,18 +479,18 @@
         <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>50670160</v>
@@ -507,88 +498,22 @@
       <c r="E3" s="1">
         <v>222</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
+      <c r="A4" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50670160</v>
-      </c>
-      <c r="E4" s="1">
-        <v>222</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>222</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>50670160</v>
-      </c>
-      <c r="E6" s="1">
-        <v>222</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>50670160</v>
-      </c>
-      <c r="E7" s="1">
-        <v>222</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/main/bin/Debug/ArquivosDados/CadastroLocal.xlsx
+++ b/main/bin/Debug/ArquivosDados/CadastroLocal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC9093BD-A464-475F-A271-EF0D0CE45009}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{342C85DE-7774-4943-ADA8-1738B9CAC831}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t xml:space="preserve">Nome </t>
   </si>
@@ -498,6 +498,9 @@
       <c r="E3" s="1">
         <v>222</v>
       </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -514,6 +517,9 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/main/bin/Debug/ArquivosDados/CadastroLocal.xlsx
+++ b/main/bin/Debug/ArquivosDados/CadastroLocal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{342C85DE-7774-4943-ADA8-1738B9CAC831}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F239B92-A6F3-4087-8091-8E481EA513B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t xml:space="preserve">Nome </t>
   </si>
@@ -31,9 +31,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>FALHA</t>
-  </si>
-  <si>
     <t>Cep</t>
   </si>
   <si>
@@ -52,10 +49,22 @@
     <t>081999999999</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>SUCESSO</t>
+  </si>
+  <si>
+    <t>malFormado</t>
+  </si>
+  <si>
+    <t>08199999999</t>
+  </si>
+  <si>
+    <t>08199999</t>
+  </si>
+  <si>
+    <t>bemFormado</t>
+  </si>
+  <si>
+    <t>semEspecialidade</t>
   </si>
 </sst>
 </file>
@@ -106,7 +115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,13 +146,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,27 +459,27 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>50670160</v>
@@ -479,18 +488,18 @@
         <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>50670160</v>
@@ -499,27 +508,87 @@
         <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50670160</v>
+      </c>
+      <c r="E4" s="1">
+        <v>222</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>222</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50670160</v>
+      </c>
+      <c r="E6" s="1">
+        <v>222</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50670160</v>
+      </c>
+      <c r="E7" s="1">
+        <v>222</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
